--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_14_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_14_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91948.0710687937</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37466280.04117329</v>
+        <v>36883525.34967402</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>212011.5776551508</v>
       </c>
     </row>
     <row r="11">
@@ -25877,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>426.502040297739</v>
+        <v>424.9683013552074</v>
       </c>
       <c r="H44" t="n">
-        <v>372.7472703061117</v>
+        <v>357.0398663609097</v>
       </c>
       <c r="I44" t="n">
-        <v>341.7654321274525</v>
+        <v>282.6359615455021</v>
       </c>
       <c r="J44" t="n">
-        <v>294.1995948558653</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K44" t="n">
-        <v>357.6460079480934</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L44" t="n">
-        <v>383.1204243262292</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M44" t="n">
-        <v>374.3126289943182</v>
+        <v>105.0014909015127</v>
       </c>
       <c r="N44" t="n">
-        <v>372.7962283444602</v>
+        <v>99.1273544811869</v>
       </c>
       <c r="O44" t="n">
-        <v>373.9095935602409</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P44" t="n">
-        <v>375.753618102313</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q44" t="n">
-        <v>361.2467460459804</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R44" t="n">
-        <v>350.3264989479647</v>
+        <v>253.9827700991628</v>
       </c>
       <c r="S44" t="n">
-        <v>287.8980161538978</v>
+        <v>252.9479400009585</v>
       </c>
       <c r="T44" t="n">
-        <v>226.3641587569061</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U44" t="n">
-        <v>248.0428861901385</v>
+        <v>247.920187074736</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,49 +25958,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>170.3511911174186</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H45" t="n">
-        <v>156.5586620955882</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I45" t="n">
-        <v>161.7238675</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J45" t="n">
-        <v>206.1111433333334</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K45" t="n">
-        <v>223.9923383333334</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L45" t="n">
-        <v>225.1508671422956</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M45" t="n">
-        <v>230.9678051232798</v>
+        <v>23.04073385794618</v>
       </c>
       <c r="N45" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>231.7188972222222</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P45" t="n">
-        <v>217.7084120482866</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.470382889785</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R45" t="n">
-        <v>236.7291939414415</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S45" t="n">
-        <v>239.7221010586735</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T45" t="n">
-        <v>244.7196483586449</v>
+        <v>241.4119630809429</v>
       </c>
       <c r="U45" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9925190910756</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>170.5257400672264</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H46" t="n">
-        <v>177.0546849705086</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I46" t="n">
-        <v>197.7486781736251</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J46" t="n">
-        <v>206.3675598390187</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K46" t="n">
-        <v>209.64654452712</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L46" t="n">
-        <v>219.1875989570122</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M46" t="n">
-        <v>225.7543989148582</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N46" t="n">
-        <v>207.4890097560039</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O46" t="n">
-        <v>224.9918749842445</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P46" t="n">
-        <v>223.8080065798648</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q46" t="n">
-        <v>246.1956276478495</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R46" t="n">
-        <v>274.8494840618493</v>
+        <v>243.9152896122075</v>
       </c>
       <c r="S46" t="n">
-        <v>265.4963749257153</v>
+        <v>253.506716462318</v>
       </c>
       <c r="T46" t="n">
-        <v>218.2736753476266</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9504771745873</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>367135.4556445376</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>40792.82840494868</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>253928.9328155884</v>
       </c>
     </row>
     <row r="4">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8317.082850613346</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-221453.1872612531</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>381.5175619547406</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>381.5175619547406</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>273.6688738632733</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.713942220932166</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.8206226804309515</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7.925487466267348</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>15.24270636677666</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>11.98965846339734</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_14_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_14_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91948.0710687937</v>
+        <v>-283881.8511543975</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36883525.34967402</v>
+        <v>29728395.40901621</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212011.5776551508</v>
+        <v>3524946.78828458</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H11" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I11" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J11" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K11" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214526</v>
       </c>
       <c r="L11" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M11" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N11" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O11" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P11" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R11" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S11" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T11" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U11" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V11" t="n">
         <v>308.2281821605244</v>
@@ -23351,49 +23351,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H12" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I12" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J12" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K12" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689194</v>
       </c>
       <c r="M12" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P12" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700126</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R12" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S12" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T12" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U12" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V12" t="n">
         <v>255.0969898936781</v>
@@ -23430,49 +23430,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H13" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I13" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J13" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K13" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M13" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N13" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O13" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P13" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q13" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R13" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S13" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T13" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V13" t="n">
         <v>232.1699497460494</v>
@@ -23509,49 +23509,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H14" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I14" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J14" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K14" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214526</v>
       </c>
       <c r="L14" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M14" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N14" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O14" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P14" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q14" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R14" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S14" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T14" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V14" t="n">
         <v>308.2281821605244</v>
@@ -23588,49 +23588,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H15" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I15" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J15" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K15" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L15" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689194</v>
       </c>
       <c r="M15" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P15" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700126</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R15" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S15" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T15" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U15" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V15" t="n">
         <v>255.0969898936781</v>
@@ -23667,49 +23667,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H16" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I16" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J16" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K16" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L16" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M16" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N16" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O16" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P16" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q16" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R16" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S16" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T16" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V16" t="n">
         <v>232.1699497460494</v>
@@ -23746,49 +23746,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H17" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I17" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J17" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K17" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L17" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M17" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N17" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O17" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P17" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q17" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R17" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S17" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T17" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U17" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -23825,49 +23825,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H18" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I18" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J18" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K18" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L18" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M18" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P18" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R18" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S18" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T18" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U18" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23904,49 +23904,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H19" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I19" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J19" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K19" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M19" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N19" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O19" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P19" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q19" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R19" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S19" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T19" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V19" t="n">
         <v>232.1699497460494</v>
@@ -23983,49 +23983,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H20" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I20" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J20" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K20" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L20" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M20" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N20" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O20" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P20" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q20" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R20" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S20" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T20" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U20" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
@@ -24062,49 +24062,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H21" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I21" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J21" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K21" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L21" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M21" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P21" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R21" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S21" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T21" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U21" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V21" t="n">
         <v>255.0969898936781</v>
@@ -24141,49 +24141,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H22" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I22" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J22" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K22" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M22" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N22" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O22" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P22" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q22" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R22" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S22" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T22" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -24220,49 +24220,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H23" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I23" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J23" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K23" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L23" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M23" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N23" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O23" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P23" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q23" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R23" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S23" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T23" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24299,49 +24299,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H24" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I24" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J24" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K24" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L24" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M24" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P24" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R24" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S24" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T24" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U24" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24378,49 +24378,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H25" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I25" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J25" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K25" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L25" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M25" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N25" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O25" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P25" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q25" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R25" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S25" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T25" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V25" t="n">
         <v>232.1699497460494</v>
@@ -24457,49 +24457,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H26" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I26" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J26" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K26" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L26" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M26" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N26" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O26" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P26" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q26" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R26" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S26" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T26" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24536,49 +24536,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H27" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I27" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J27" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L27" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M27" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P27" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R27" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S27" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T27" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U27" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -24615,49 +24615,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H28" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I28" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J28" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K28" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L28" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M28" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N28" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O28" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P28" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q28" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R28" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S28" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T28" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V28" t="n">
         <v>232.1699497460494</v>
@@ -24694,49 +24694,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H29" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I29" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J29" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K29" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L29" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M29" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N29" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O29" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P29" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q29" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R29" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S29" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T29" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U29" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V29" t="n">
         <v>308.2281821605244</v>
@@ -24773,49 +24773,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H30" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I30" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J30" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K30" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L30" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M30" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P30" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R30" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S30" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T30" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U30" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
@@ -24852,49 +24852,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H31" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I31" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J31" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K31" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L31" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M31" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N31" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O31" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P31" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q31" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R31" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S31" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T31" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V31" t="n">
         <v>232.1699497460494</v>
@@ -24931,49 +24931,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H32" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I32" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J32" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K32" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L32" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M32" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N32" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O32" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P32" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q32" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R32" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S32" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T32" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -25010,49 +25010,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H33" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I33" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J33" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L33" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M33" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P33" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R33" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S33" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T33" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U33" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V33" t="n">
         <v>255.0969898936781</v>
@@ -25089,49 +25089,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H34" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I34" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J34" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K34" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L34" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M34" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N34" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O34" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P34" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q34" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R34" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S34" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T34" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
@@ -25168,49 +25168,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H35" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I35" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J35" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K35" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L35" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M35" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N35" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O35" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P35" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q35" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R35" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S35" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T35" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
@@ -25247,49 +25247,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H36" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I36" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J36" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K36" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L36" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M36" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P36" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R36" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S36" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T36" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U36" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25326,49 +25326,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H37" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I37" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J37" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K37" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L37" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M37" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N37" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O37" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P37" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q37" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R37" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S37" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T37" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U37" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
@@ -25405,49 +25405,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G38" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H38" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I38" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J38" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K38" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L38" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M38" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N38" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O38" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P38" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q38" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R38" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S38" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T38" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -25484,49 +25484,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H39" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I39" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J39" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K39" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L39" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M39" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P39" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R39" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S39" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T39" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U39" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25563,49 +25563,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H40" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I40" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J40" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K40" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L40" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M40" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N40" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O40" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P40" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q40" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R40" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S40" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T40" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U40" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
@@ -25642,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>426.502040297739</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H41" t="n">
-        <v>372.7472703061117</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I41" t="n">
-        <v>341.7654321274525</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J41" t="n">
-        <v>294.1995948558653</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K41" t="n">
-        <v>357.6460079480934</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L41" t="n">
-        <v>383.1204243262292</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M41" t="n">
-        <v>374.3126289943182</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N41" t="n">
-        <v>372.7962283444602</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O41" t="n">
-        <v>373.9095935602409</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P41" t="n">
-        <v>375.753618102313</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q41" t="n">
-        <v>361.2467460459804</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R41" t="n">
-        <v>350.3264989479647</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S41" t="n">
-        <v>287.8980161538978</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T41" t="n">
-        <v>226.3641587569061</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U41" t="n">
-        <v>248.0428861901385</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25721,49 +25721,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>170.3511911174186</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H42" t="n">
-        <v>156.5586620955882</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I42" t="n">
-        <v>161.7238675</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J42" t="n">
-        <v>206.1111433333334</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K42" t="n">
-        <v>223.9923383333334</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L42" t="n">
-        <v>225.1508671422956</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M42" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>231.7188972222222</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P42" t="n">
-        <v>217.7084120482866</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.470382889785</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R42" t="n">
-        <v>236.7291939414415</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S42" t="n">
-        <v>239.7221010586735</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T42" t="n">
-        <v>244.7196483586449</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U42" t="n">
-        <v>258.0465074253145</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25800,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>170.5257400672264</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H43" t="n">
-        <v>177.0546849705086</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I43" t="n">
-        <v>197.7486781736251</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J43" t="n">
-        <v>206.3675598390187</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K43" t="n">
-        <v>209.64654452712</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L43" t="n">
-        <v>219.1875989570122</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M43" t="n">
-        <v>225.7543989148582</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N43" t="n">
-        <v>207.4890097560039</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O43" t="n">
-        <v>224.9918749842445</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P43" t="n">
-        <v>223.8080065798648</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q43" t="n">
-        <v>246.1956276478495</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R43" t="n">
-        <v>274.8494840618493</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S43" t="n">
-        <v>265.4963749257153</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T43" t="n">
-        <v>218.2736753476266</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9880034921566</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25879,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.9683013552074</v>
+        <v>424.798345271243</v>
       </c>
       <c r="H44" t="n">
-        <v>357.0398663609097</v>
+        <v>355.2993036160095</v>
       </c>
       <c r="I44" t="n">
-        <v>282.6359615455021</v>
+        <v>276.0837296184653</v>
       </c>
       <c r="J44" t="n">
-        <v>164.0254192821721</v>
+        <v>149.6006091008002</v>
       </c>
       <c r="K44" t="n">
-        <v>162.5486629370368</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L44" t="n">
-        <v>141.0849161526705</v>
+        <v>114.2645714324614</v>
       </c>
       <c r="M44" t="n">
-        <v>105.0014909015127</v>
+        <v>75.15868967310212</v>
       </c>
       <c r="N44" t="n">
-        <v>99.1273544811869</v>
+        <v>68.80166552921241</v>
       </c>
       <c r="O44" t="n">
-        <v>115.4918363067663</v>
+        <v>86.85614816471269</v>
       </c>
       <c r="P44" t="n">
-        <v>155.2000409925878</v>
+        <v>130.7601436734049</v>
       </c>
       <c r="Q44" t="n">
-        <v>195.6201948156689</v>
+        <v>177.2668497534603</v>
       </c>
       <c r="R44" t="n">
-        <v>253.9827700991628</v>
+        <v>243.3067662398352</v>
       </c>
       <c r="S44" t="n">
-        <v>252.9479400009585</v>
+        <v>249.0750657376202</v>
       </c>
       <c r="T44" t="n">
-        <v>219.650216535974</v>
+        <v>218.9062337784199</v>
       </c>
       <c r="U44" t="n">
-        <v>247.920187074736</v>
+        <v>247.9065905880188</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25958,49 +25958,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.5305684369876</v>
+        <v>169.4396339152703</v>
       </c>
       <c r="H45" t="n">
-        <v>148.6331746293208</v>
+        <v>147.7549385906295</v>
       </c>
       <c r="I45" t="n">
-        <v>133.4699725816536</v>
+        <v>130.3391129523499</v>
       </c>
       <c r="J45" t="n">
-        <v>128.5802961440214</v>
+        <v>119.988978019839</v>
       </c>
       <c r="K45" t="n">
-        <v>91.47977155514764</v>
+        <v>76.79584047590225</v>
       </c>
       <c r="L45" t="n">
-        <v>46.97136804258392</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M45" t="n">
-        <v>23.04073385794618</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>36.47188605845983</v>
+        <v>14.83625009529541</v>
       </c>
       <c r="P45" t="n">
-        <v>61.00547230880082</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q45" t="n">
-        <v>122.7186175772305</v>
+        <v>111.1109056471342</v>
       </c>
       <c r="R45" t="n">
-        <v>185.7786033090706</v>
+        <v>180.1326862501631</v>
       </c>
       <c r="S45" t="n">
-        <v>224.4793946918968</v>
+        <v>222.7903258345591</v>
       </c>
       <c r="T45" t="n">
-        <v>241.4119630809429</v>
+        <v>241.0454331447226</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9925190910756</v>
+        <v>257.9865365567521</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26037,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.8377575784555</v>
+        <v>169.7615211301363</v>
       </c>
       <c r="H46" t="n">
-        <v>170.9378952067096</v>
+        <v>170.2600838752892</v>
       </c>
       <c r="I46" t="n">
-        <v>177.0591684204074</v>
+        <v>174.7665305018606</v>
       </c>
       <c r="J46" t="n">
-        <v>157.72719788292</v>
+        <v>152.3372809867477</v>
       </c>
       <c r="K46" t="n">
-        <v>129.7154881044711</v>
+        <v>120.8581989270142</v>
       </c>
       <c r="L46" t="n">
-        <v>116.9033660355724</v>
+        <v>105.5690853463604</v>
       </c>
       <c r="M46" t="n">
-        <v>117.9100166068977</v>
+        <v>105.9596068035418</v>
       </c>
       <c r="N46" t="n">
-        <v>102.2089258152801</v>
+        <v>90.54267004656877</v>
       </c>
       <c r="O46" t="n">
-        <v>127.7486773896165</v>
+        <v>116.9730019489985</v>
       </c>
       <c r="P46" t="n">
-        <v>140.5996517561621</v>
+        <v>131.3791998612571</v>
       </c>
       <c r="Q46" t="n">
-        <v>188.5864757926837</v>
+        <v>182.2027128338766</v>
       </c>
       <c r="R46" t="n">
-        <v>243.9152896122075</v>
+        <v>240.4874216723248</v>
       </c>
       <c r="S46" t="n">
-        <v>253.506716462318</v>
+        <v>252.1781230856995</v>
       </c>
       <c r="T46" t="n">
-        <v>215.3341138046966</v>
+        <v>215.008376252787</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9504771745873</v>
+        <v>292.9463188228607</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>406238.943188247</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>367135.4556445376</v>
+        <v>406238.943188247</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>45137.66035424966</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>45137.66035424965</v>
       </c>
       <c r="P2" t="n">
-        <v>40792.82840494868</v>
+        <v>45137.66035424965</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>340477.4817237768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>253928.9328155884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9238.712204931193</v>
       </c>
       <c r="P5" t="n">
-        <v>8317.082850613346</v>
+        <v>9238.712204931193</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-323107.816408443</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>17369.66531533383</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>17369.66531533382</v>
       </c>
       <c r="P6" t="n">
-        <v>-221453.1872612531</v>
+        <v>17369.66531533382</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="P3" t="n">
-        <v>381.5175619547406</v>
+        <v>423.7941378408804</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>423.7941378408804</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>381.5175619547406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>144.5989857550651</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.457924978486244</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.9115572021483087</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>86.12216531349439</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>197.9238565454036</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.794601095219365</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>88.78834560010573</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>144.5989857550651</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.457924978486244</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.9115572021483087</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>86.12216531349439</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>197.9238565454036</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.794601095219365</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>88.78834560010573</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.533738942531619</v>
+        <v>1.703695026496</v>
       </c>
       <c r="H44" t="n">
-        <v>15.70740394520195</v>
+        <v>17.44796669010217</v>
       </c>
       <c r="I44" t="n">
-        <v>59.12947058195031</v>
+        <v>65.68170250898712</v>
       </c>
       <c r="J44" t="n">
-        <v>130.1741755736931</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K44" t="n">
-        <v>195.0973450110566</v>
+        <v>216.7163962266408</v>
       </c>
       <c r="L44" t="n">
-        <v>242.0355081735587</v>
+        <v>268.8558528937678</v>
       </c>
       <c r="M44" t="n">
-        <v>269.3111380928054</v>
+        <v>299.1539393212161</v>
       </c>
       <c r="N44" t="n">
-        <v>273.6688738632733</v>
+        <v>303.9945628152478</v>
       </c>
       <c r="O44" t="n">
-        <v>258.4177572534746</v>
+        <v>287.0534453955282</v>
       </c>
       <c r="P44" t="n">
-        <v>220.5535771097252</v>
+        <v>244.9934744289081</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.6265512303115</v>
+        <v>183.9798962925201</v>
       </c>
       <c r="R44" t="n">
-        <v>96.34372884880192</v>
+        <v>107.0197327081295</v>
       </c>
       <c r="S44" t="n">
-        <v>34.95007615293931</v>
+        <v>38.82295041627765</v>
       </c>
       <c r="T44" t="n">
-        <v>6.713942220932166</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.13629560211968</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8206226804309515</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H45" t="n">
-        <v>7.925487466267348</v>
+        <v>8.803723504958668</v>
       </c>
       <c r="I45" t="n">
-        <v>28.25389491834636</v>
+        <v>31.38475454765011</v>
       </c>
       <c r="J45" t="n">
-        <v>77.53084718931197</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K45" t="n">
-        <v>132.5125667781857</v>
+        <v>147.1964978574311</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1794990997116</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M45" t="n">
-        <v>207.9270712653336</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>195.2470111637624</v>
+        <v>216.8826471269268</v>
       </c>
       <c r="P45" t="n">
-        <v>156.7029397394858</v>
+        <v>174.0674450312854</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7517653125544</v>
+        <v>116.3594772426508</v>
       </c>
       <c r="R45" t="n">
-        <v>50.95059063237085</v>
+        <v>56.59650769127835</v>
       </c>
       <c r="S45" t="n">
-        <v>15.24270636677666</v>
+        <v>16.93177522411441</v>
       </c>
       <c r="T45" t="n">
-        <v>3.307685277701948</v>
+        <v>3.674215213922349</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05997086856238876</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.7642189370901121</v>
       </c>
       <c r="H46" t="n">
-        <v>6.116789763798959</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I46" t="n">
-        <v>20.68950975321774</v>
+        <v>22.98214767176447</v>
       </c>
       <c r="J46" t="n">
-        <v>48.64036195609864</v>
+        <v>54.03027885227092</v>
       </c>
       <c r="K46" t="n">
-        <v>79.93105642264891</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L46" t="n">
-        <v>102.2842329214398</v>
+        <v>113.6185136106518</v>
       </c>
       <c r="M46" t="n">
-        <v>107.8443823079605</v>
+        <v>119.7947921113164</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2800839407238</v>
+        <v>116.9463397094352</v>
       </c>
       <c r="O46" t="n">
-        <v>97.243197594628</v>
+        <v>108.0188730352461</v>
       </c>
       <c r="P46" t="n">
-        <v>83.20835482370272</v>
+        <v>92.4288067186077</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.60915185516583</v>
+        <v>63.99291481397294</v>
       </c>
       <c r="R46" t="n">
-        <v>30.93419444964174</v>
+        <v>34.36206238952449</v>
       </c>
       <c r="S46" t="n">
-        <v>11.98965846339734</v>
+        <v>13.31825184001586</v>
       </c>
       <c r="T46" t="n">
-        <v>2.939561542929968</v>
+        <v>3.265299094839569</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.04168466929582434</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
